--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B5F512-C934-41FC-8F9F-BEF5F7F43799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE57379-5651-4965-A078-8702CE1A7853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286D0838-D193-483F-8836-E98A54F9E301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DE89EA-C170-4383-AA33-1650B403684F}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
